--- a/static/download/2024/RP3_APT_CDO_2024_Jan_Dec.xlsx
+++ b/static/download/2024/RP3_APT_CDO_2024_Jan_Dec.xlsx
@@ -1353,7 +1353,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6">
-        <v>45673.0</v>
+        <v>45758.0</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>6</v>
@@ -1433,14 +1433,13 @@
         <v>20</v>
       </c>
       <c r="D6" s="21">
-        <v>96620.0</v>
+        <v>96625.0</v>
       </c>
       <c r="E6" s="21">
-        <v>16888.0</v>
+        <v>14821.0</v>
       </c>
       <c r="F6" s="22">
-        <f t="shared" ref="F6:F150" si="1">E6/D6</f>
-        <v>0.1747878286</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -1454,14 +1453,13 @@
         <v>23</v>
       </c>
       <c r="D7" s="21">
-        <v>94195.0</v>
+        <v>94212.0</v>
       </c>
       <c r="E7" s="21">
-        <v>21867.0</v>
+        <v>16890.0</v>
       </c>
       <c r="F7" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2321460799</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -1475,14 +1473,13 @@
         <v>23</v>
       </c>
       <c r="D8" s="21">
-        <v>5574.0</v>
+        <v>5589.0</v>
       </c>
       <c r="E8" s="21">
-        <v>1299.0</v>
+        <v>1248.0</v>
       </c>
       <c r="F8" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2330462863</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -1496,14 +1493,13 @@
         <v>23</v>
       </c>
       <c r="D9" s="21">
-        <v>1345.0</v>
+        <v>1359.0</v>
       </c>
       <c r="E9" s="21">
-        <v>210.0</v>
+        <v>186.0</v>
       </c>
       <c r="F9" s="22">
-        <f t="shared" si="1"/>
-        <v>0.156133829</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -1517,14 +1513,13 @@
         <v>23</v>
       </c>
       <c r="D10" s="21">
-        <v>219492.0</v>
+        <v>219497.0</v>
       </c>
       <c r="E10" s="21">
-        <v>9721.0</v>
+        <v>8714.0</v>
       </c>
       <c r="F10" s="22">
-        <f t="shared" si="1"/>
-        <v>0.04428863011</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
@@ -1538,14 +1533,13 @@
         <v>23</v>
       </c>
       <c r="D11" s="21">
-        <v>8275.0</v>
+        <v>8285.0</v>
       </c>
       <c r="E11" s="21">
-        <v>1919.0</v>
+        <v>1619.0</v>
       </c>
       <c r="F11" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2319033233</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -1559,14 +1553,13 @@
         <v>23</v>
       </c>
       <c r="D12" s="21">
-        <v>60127.0</v>
+        <v>60170.0</v>
       </c>
       <c r="E12" s="21">
-        <v>17140.0</v>
+        <v>13632.0</v>
       </c>
       <c r="F12" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2850632827</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
@@ -1580,14 +1573,13 @@
         <v>23</v>
       </c>
       <c r="D13" s="21">
-        <v>56783.0</v>
+        <v>56854.0</v>
       </c>
       <c r="E13" s="21">
-        <v>10440.0</v>
+        <v>10702.0</v>
       </c>
       <c r="F13" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1838578448</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
@@ -1601,14 +1593,13 @@
         <v>23</v>
       </c>
       <c r="D14" s="21">
-        <v>77253.0</v>
+        <v>77265.0</v>
       </c>
       <c r="E14" s="21">
-        <v>14200.0</v>
+        <v>13444.0</v>
       </c>
       <c r="F14" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1838116319</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
@@ -1622,14 +1613,13 @@
         <v>23</v>
       </c>
       <c r="D15" s="21">
-        <v>161533.0</v>
+        <v>161547.0</v>
       </c>
       <c r="E15" s="21">
-        <v>8181.0</v>
+        <v>7033.0</v>
       </c>
       <c r="F15" s="22">
-        <f t="shared" si="1"/>
-        <v>0.05064599803</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
@@ -1643,14 +1633,13 @@
         <v>23</v>
       </c>
       <c r="D16" s="21">
-        <v>18843.0</v>
+        <v>18870.0</v>
       </c>
       <c r="E16" s="21">
-        <v>2359.0</v>
+        <v>2429.0</v>
       </c>
       <c r="F16" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1251923791</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
@@ -1664,14 +1653,13 @@
         <v>23</v>
       </c>
       <c r="D17" s="21">
-        <v>36054.0</v>
+        <v>36063.0</v>
       </c>
       <c r="E17" s="21">
-        <v>5742.0</v>
+        <v>4778.0</v>
       </c>
       <c r="F17" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1592611083</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
@@ -1685,14 +1673,13 @@
         <v>23</v>
       </c>
       <c r="D18" s="21">
-        <v>2448.0</v>
+        <v>2460.0</v>
       </c>
       <c r="E18" s="21">
-        <v>290.0</v>
+        <v>297.0</v>
       </c>
       <c r="F18" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1184640523</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
@@ -1706,14 +1693,13 @@
         <v>23</v>
       </c>
       <c r="D19" s="21">
-        <v>41974.0</v>
+        <v>41985.0</v>
       </c>
       <c r="E19" s="21">
-        <v>3895.0</v>
+        <v>3621.0</v>
       </c>
       <c r="F19" s="22">
-        <f t="shared" si="1"/>
-        <v>0.0927955401</v>
+        <v>0.086</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -1727,14 +1713,13 @@
         <v>23</v>
       </c>
       <c r="D20" s="21">
-        <v>24427.0</v>
+        <v>24453.0</v>
       </c>
       <c r="E20" s="21">
-        <v>6355.0</v>
+        <v>5716.0</v>
       </c>
       <c r="F20" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2601629345</v>
+        <v>0.234</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -1748,14 +1733,13 @@
         <v>23</v>
       </c>
       <c r="D21" s="21">
-        <v>10490.0</v>
+        <v>10517.0</v>
       </c>
       <c r="E21" s="21">
-        <v>2407.0</v>
+        <v>2183.0</v>
       </c>
       <c r="F21" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2294566254</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -1769,14 +1753,13 @@
         <v>54</v>
       </c>
       <c r="D22" s="21">
-        <v>19168.0</v>
+        <v>19171.0</v>
       </c>
       <c r="E22" s="21">
-        <v>13271.0</v>
+        <v>13272.0</v>
       </c>
       <c r="F22" s="22">
-        <f t="shared" si="1"/>
-        <v>0.6923518364</v>
+        <v>0.692</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
@@ -1790,14 +1773,13 @@
         <v>54</v>
       </c>
       <c r="D23" s="21">
-        <v>511.0</v>
+        <v>514.0</v>
       </c>
       <c r="E23" s="21">
         <v>400.0</v>
       </c>
       <c r="F23" s="22">
-        <f t="shared" si="1"/>
-        <v>0.782778865</v>
+        <v>0.778</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
@@ -1811,14 +1793,13 @@
         <v>59</v>
       </c>
       <c r="D24" s="21">
-        <v>76228.0</v>
+        <v>76232.0</v>
       </c>
       <c r="E24" s="21">
         <v>47827.0</v>
       </c>
       <c r="F24" s="22">
-        <f t="shared" si="1"/>
-        <v>0.6274203705</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
@@ -1832,14 +1813,13 @@
         <v>62</v>
       </c>
       <c r="D25" s="21">
-        <v>243535.0</v>
+        <v>243546.0</v>
       </c>
       <c r="E25" s="21">
-        <v>60544.0</v>
+        <v>60549.0</v>
       </c>
       <c r="F25" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2486049233</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -1853,14 +1833,13 @@
         <v>62</v>
       </c>
       <c r="D26" s="21">
-        <v>3009.0</v>
+        <v>3023.0</v>
       </c>
       <c r="E26" s="21">
-        <v>392.0</v>
+        <v>396.0</v>
       </c>
       <c r="F26" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1302758391</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -1874,14 +1853,13 @@
         <v>62</v>
       </c>
       <c r="D27" s="21">
-        <v>2643.0</v>
+        <v>2692.0</v>
       </c>
       <c r="E27" s="21">
-        <v>640.0</v>
+        <v>647.0</v>
       </c>
       <c r="F27" s="22">
-        <f t="shared" si="1"/>
-        <v>0.242149073</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
@@ -1895,14 +1873,13 @@
         <v>62</v>
       </c>
       <c r="D28" s="21">
-        <v>11846.0</v>
+        <v>11865.0</v>
       </c>
       <c r="E28" s="21">
-        <v>2254.0</v>
+        <v>2260.0</v>
       </c>
       <c r="F28" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1902751984</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
@@ -1916,14 +1893,13 @@
         <v>71</v>
       </c>
       <c r="D29" s="21">
-        <v>11205.0</v>
+        <v>11208.0</v>
       </c>
       <c r="E29" s="21">
-        <v>5794.0</v>
+        <v>5795.0</v>
       </c>
       <c r="F29" s="22">
-        <f t="shared" si="1"/>
-        <v>0.5170905846</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
@@ -1937,14 +1913,13 @@
         <v>71</v>
       </c>
       <c r="D30" s="21">
-        <v>121353.0</v>
+        <v>121356.0</v>
       </c>
       <c r="E30" s="21">
         <v>48420.0</v>
       </c>
       <c r="F30" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3990012608</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
@@ -1958,14 +1933,13 @@
         <v>71</v>
       </c>
       <c r="D31" s="21">
-        <v>10730.0</v>
+        <v>10731.0</v>
       </c>
       <c r="E31" s="21">
         <v>5481.0</v>
       </c>
       <c r="F31" s="22">
-        <f t="shared" si="1"/>
-        <v>0.5108108108</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
@@ -1985,8 +1959,7 @@
         <v>58221.0</v>
       </c>
       <c r="F32" s="22">
-        <f t="shared" si="1"/>
-        <v>0.4855148604</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
@@ -2000,14 +1973,13 @@
         <v>81</v>
       </c>
       <c r="D33" s="21">
-        <v>35650.0</v>
+        <v>35660.0</v>
       </c>
       <c r="E33" s="21">
-        <v>12709.0</v>
+        <v>12714.0</v>
       </c>
       <c r="F33" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3564936886</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
@@ -2021,14 +1993,13 @@
         <v>84</v>
       </c>
       <c r="D34" s="21">
-        <v>38714.0</v>
+        <v>43008.0</v>
       </c>
       <c r="E34" s="21">
-        <v>29981.0</v>
+        <v>31728.0</v>
       </c>
       <c r="F34" s="22">
-        <f t="shared" si="1"/>
-        <v>0.7744226895</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
@@ -2042,14 +2013,13 @@
         <v>84</v>
       </c>
       <c r="D35" s="21">
-        <v>109211.0</v>
+        <v>109215.0</v>
       </c>
       <c r="E35" s="21">
-        <v>63999.0</v>
+        <v>64002.0</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="1"/>
-        <v>0.586012398</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
@@ -2063,14 +2033,13 @@
         <v>84</v>
       </c>
       <c r="D36" s="21">
-        <v>25468.0</v>
+        <v>25472.0</v>
       </c>
       <c r="E36" s="21">
-        <v>19972.0</v>
+        <v>19973.0</v>
       </c>
       <c r="F36" s="22">
-        <f t="shared" si="1"/>
-        <v>0.7841997801</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
@@ -2084,14 +2053,13 @@
         <v>84</v>
       </c>
       <c r="D37" s="21">
-        <v>21769.0</v>
+        <v>27450.0</v>
       </c>
       <c r="E37" s="21">
-        <v>15330.0</v>
+        <v>19302.0</v>
       </c>
       <c r="F37" s="22">
-        <f t="shared" si="1"/>
-        <v>0.7042124121</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
@@ -2105,14 +2073,13 @@
         <v>93</v>
       </c>
       <c r="D38" s="21">
-        <v>1872.0</v>
+        <v>1880.0</v>
       </c>
       <c r="E38" s="21">
-        <v>702.0</v>
+        <v>706.0</v>
       </c>
       <c r="F38" s="22">
-        <f t="shared" si="1"/>
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
@@ -2126,14 +2093,13 @@
         <v>93</v>
       </c>
       <c r="D39" s="21">
-        <v>25466.0</v>
+        <v>25476.0</v>
       </c>
       <c r="E39" s="21">
-        <v>13600.0</v>
+        <v>13604.0</v>
       </c>
       <c r="F39" s="22">
-        <f t="shared" si="1"/>
-        <v>0.5340453939</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
@@ -2147,14 +2113,13 @@
         <v>93</v>
       </c>
       <c r="D40" s="21">
-        <v>37596.0</v>
+        <v>37598.0</v>
       </c>
       <c r="E40" s="21">
         <v>16977.0</v>
       </c>
       <c r="F40" s="22">
-        <f t="shared" si="1"/>
-        <v>0.4515639962</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
@@ -2168,14 +2133,13 @@
         <v>93</v>
       </c>
       <c r="D41" s="21">
-        <v>22130.0</v>
+        <v>22131.0</v>
       </c>
       <c r="E41" s="21">
         <v>8049.0</v>
       </c>
       <c r="F41" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3637144148</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
@@ -2189,14 +2153,13 @@
         <v>93</v>
       </c>
       <c r="D42" s="21">
-        <v>1713.0</v>
+        <v>1718.0</v>
       </c>
       <c r="E42" s="21">
         <v>747.0</v>
       </c>
       <c r="F42" s="22">
-        <f t="shared" si="1"/>
-        <v>0.4360770578</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
@@ -2210,14 +2173,13 @@
         <v>93</v>
       </c>
       <c r="D43" s="21">
-        <v>1556.0</v>
+        <v>1564.0</v>
       </c>
       <c r="E43" s="21">
-        <v>764.0</v>
+        <v>765.0</v>
       </c>
       <c r="F43" s="22">
-        <f t="shared" si="1"/>
-        <v>0.4910025707</v>
+        <v>0.489</v>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
@@ -2231,14 +2193,13 @@
         <v>93</v>
       </c>
       <c r="D44" s="21">
-        <v>8258.0</v>
+        <v>8266.0</v>
       </c>
       <c r="E44" s="21">
-        <v>5129.0</v>
+        <v>5131.0</v>
       </c>
       <c r="F44" s="22">
-        <f t="shared" si="1"/>
-        <v>0.6210946961</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="45" ht="12.75" customHeight="1">
@@ -2252,14 +2213,13 @@
         <v>93</v>
       </c>
       <c r="D45" s="21">
-        <v>14343.0</v>
+        <v>14350.0</v>
       </c>
       <c r="E45" s="21">
-        <v>5000.0</v>
+        <v>5001.0</v>
       </c>
       <c r="F45" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3486021056</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="46" ht="12.75" customHeight="1">
@@ -2279,8 +2239,7 @@
         <v>113.0</v>
       </c>
       <c r="F46" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2185686654</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="47" ht="12.75" customHeight="1">
@@ -2294,14 +2253,13 @@
         <v>93</v>
       </c>
       <c r="D47" s="21">
-        <v>7687.0</v>
+        <v>7689.0</v>
       </c>
       <c r="E47" s="21">
         <v>2596.0</v>
       </c>
       <c r="F47" s="22">
-        <f t="shared" si="1"/>
-        <v>0.337713022</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="48" ht="12.75" customHeight="1">
@@ -2315,14 +2273,13 @@
         <v>93</v>
       </c>
       <c r="D48" s="21">
-        <v>2521.0</v>
+        <v>2526.0</v>
       </c>
       <c r="E48" s="21">
-        <v>1343.0</v>
+        <v>1345.0</v>
       </c>
       <c r="F48" s="22">
-        <f t="shared" si="1"/>
-        <v>0.5327251091</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
@@ -2336,14 +2293,13 @@
         <v>93</v>
       </c>
       <c r="D49" s="21">
-        <v>522.0</v>
+        <v>533.0</v>
       </c>
       <c r="E49" s="21">
-        <v>213.0</v>
+        <v>216.0</v>
       </c>
       <c r="F49" s="22">
-        <f t="shared" si="1"/>
-        <v>0.408045977</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="50" ht="12.75" customHeight="1">
@@ -2357,14 +2313,13 @@
         <v>93</v>
       </c>
       <c r="D50" s="21">
-        <v>90865.0</v>
+        <v>90896.0</v>
       </c>
       <c r="E50" s="21">
-        <v>41974.0</v>
+        <v>41989.0</v>
       </c>
       <c r="F50" s="22">
-        <f t="shared" si="1"/>
-        <v>0.4619380399</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="51" ht="12.75" customHeight="1">
@@ -2378,14 +2333,13 @@
         <v>93</v>
       </c>
       <c r="D51" s="21">
-        <v>18005.0</v>
+        <v>18020.0</v>
       </c>
       <c r="E51" s="21">
-        <v>5465.0</v>
+        <v>5468.0</v>
       </c>
       <c r="F51" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3035267981</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="52" ht="12.75" customHeight="1">
@@ -2399,14 +2353,13 @@
         <v>93</v>
       </c>
       <c r="D52" s="21">
-        <v>599.0</v>
+        <v>604.0</v>
       </c>
       <c r="E52" s="21">
         <v>211.0</v>
       </c>
       <c r="F52" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3522537563</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="53" ht="12.75" customHeight="1">
@@ -2420,14 +2373,13 @@
         <v>124</v>
       </c>
       <c r="D53" s="21">
-        <v>94893.0</v>
+        <v>94907.0</v>
       </c>
       <c r="E53" s="21">
-        <v>46195.0</v>
+        <v>46201.0</v>
       </c>
       <c r="F53" s="22">
-        <f t="shared" si="1"/>
-        <v>0.4868114613</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="54" ht="12.75" customHeight="1">
@@ -2447,8 +2399,7 @@
         <v>23.0</v>
       </c>
       <c r="F54" s="22">
-        <f t="shared" si="1"/>
-        <v>0.4423076923</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="55" ht="12.75" customHeight="1">
@@ -2468,8 +2419,7 @@
         <v>18182.0</v>
       </c>
       <c r="F55" s="22">
-        <f t="shared" si="1"/>
-        <v>0.632681467</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
@@ -2482,16 +2432,9 @@
       <c r="C56" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D56" s="21">
-        <v>6.0</v>
-      </c>
-      <c r="E56" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="F56" s="22">
-        <f t="shared" si="1"/>
-        <v>0.6666666667</v>
-      </c>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="22"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="19" t="s">
@@ -2504,14 +2447,13 @@
         <v>134</v>
       </c>
       <c r="D57" s="21">
-        <v>69136.0</v>
+        <v>69153.0</v>
       </c>
       <c r="E57" s="21">
-        <v>28386.0</v>
+        <v>28389.0</v>
       </c>
       <c r="F57" s="22">
-        <f t="shared" si="1"/>
-        <v>0.4105820412</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="58" ht="12.75" customHeight="1">
@@ -2525,14 +2467,13 @@
         <v>134</v>
       </c>
       <c r="D58" s="21">
-        <v>57887.0</v>
+        <v>57890.0</v>
       </c>
       <c r="E58" s="21">
-        <v>24560.0</v>
+        <v>24561.0</v>
       </c>
       <c r="F58" s="22">
-        <f t="shared" si="1"/>
-        <v>0.4242748804</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="59" ht="12.75" customHeight="1">
@@ -2552,8 +2493,7 @@
         <v>57660.0</v>
       </c>
       <c r="F59" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3327869609</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="60" ht="12.75" customHeight="1">
@@ -2567,14 +2507,13 @@
         <v>134</v>
       </c>
       <c r="D60" s="21">
-        <v>40418.0</v>
+        <v>40420.0</v>
       </c>
       <c r="E60" s="21">
         <v>13439.0</v>
       </c>
       <c r="F60" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3325003711</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="61" ht="12.75" customHeight="1">
@@ -2594,8 +2533,7 @@
         <v>62614.0</v>
       </c>
       <c r="F61" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2991905504</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1">
@@ -2609,14 +2547,13 @@
         <v>134</v>
       </c>
       <c r="D62" s="21">
-        <v>84660.0</v>
+        <v>84664.0</v>
       </c>
       <c r="E62" s="21">
-        <v>47600.0</v>
+        <v>47601.0</v>
       </c>
       <c r="F62" s="22">
-        <f t="shared" si="1"/>
-        <v>0.562248996</v>
+        <v>0.562</v>
       </c>
     </row>
     <row r="63" ht="12.75" customHeight="1">
@@ -2630,14 +2567,13 @@
         <v>134</v>
       </c>
       <c r="D63" s="21">
-        <v>120713.0</v>
+        <v>120714.0</v>
       </c>
       <c r="E63" s="21">
         <v>45769.0</v>
       </c>
       <c r="F63" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3791555176</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="64" ht="12.75" customHeight="1">
@@ -2651,14 +2587,13 @@
         <v>149</v>
       </c>
       <c r="D64" s="21">
-        <v>626.0</v>
+        <v>636.0</v>
       </c>
       <c r="E64" s="21">
-        <v>77.0</v>
+        <v>80.0</v>
       </c>
       <c r="F64" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1230031949</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="65" ht="12.75" customHeight="1">
@@ -2672,14 +2607,13 @@
         <v>149</v>
       </c>
       <c r="D65" s="21">
-        <v>697.0</v>
+        <v>733.0</v>
       </c>
       <c r="E65" s="21">
-        <v>112.0</v>
+        <v>113.0</v>
       </c>
       <c r="F65" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1606886657</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="66" ht="12.75" customHeight="1">
@@ -2693,14 +2627,13 @@
         <v>149</v>
       </c>
       <c r="D66" s="21">
-        <v>28441.0</v>
+        <v>28487.0</v>
       </c>
       <c r="E66" s="21">
-        <v>10390.0</v>
+        <v>10398.0</v>
       </c>
       <c r="F66" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3653176752</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="67" ht="12.75" customHeight="1">
@@ -2714,14 +2647,13 @@
         <v>149</v>
       </c>
       <c r="D67" s="21">
-        <v>1639.0</v>
+        <v>1696.0</v>
       </c>
       <c r="E67" s="21">
-        <v>287.0</v>
+        <v>294.0</v>
       </c>
       <c r="F67" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1751067724</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1">
@@ -2735,14 +2667,13 @@
         <v>149</v>
       </c>
       <c r="D68" s="21">
-        <v>2114.0</v>
+        <v>2147.0</v>
       </c>
       <c r="E68" s="21">
-        <v>395.0</v>
+        <v>402.0</v>
       </c>
       <c r="F68" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1868495743</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="69" ht="12.75" customHeight="1">
@@ -2756,14 +2687,13 @@
         <v>149</v>
       </c>
       <c r="D69" s="21">
-        <v>1450.0</v>
+        <v>1486.0</v>
       </c>
       <c r="E69" s="21">
-        <v>134.0</v>
+        <v>138.0</v>
       </c>
       <c r="F69" s="22">
-        <f t="shared" si="1"/>
-        <v>0.0924137931</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="70" ht="12.75" customHeight="1">
@@ -2777,14 +2707,13 @@
         <v>149</v>
       </c>
       <c r="D70" s="21">
-        <v>2453.0</v>
+        <v>2551.0</v>
       </c>
       <c r="E70" s="21">
-        <v>801.0</v>
+        <v>843.0</v>
       </c>
       <c r="F70" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3265389319</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1">
@@ -2798,14 +2727,13 @@
         <v>149</v>
       </c>
       <c r="D71" s="21">
-        <v>35802.0</v>
+        <v>35823.0</v>
       </c>
       <c r="E71" s="21">
         <v>12334.0</v>
       </c>
       <c r="F71" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3445058935</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="72" ht="12.75" customHeight="1">
@@ -2819,14 +2747,13 @@
         <v>149</v>
       </c>
       <c r="D72" s="21">
-        <v>2898.0</v>
+        <v>3139.0</v>
       </c>
       <c r="E72" s="21">
-        <v>551.0</v>
+        <v>580.0</v>
       </c>
       <c r="F72" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1901311249</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="73" ht="12.75" customHeight="1">
@@ -2840,14 +2767,13 @@
         <v>149</v>
       </c>
       <c r="D73" s="21">
-        <v>2988.0</v>
+        <v>3007.0</v>
       </c>
       <c r="E73" s="21">
-        <v>1467.0</v>
+        <v>1482.0</v>
       </c>
       <c r="F73" s="22">
-        <f t="shared" si="1"/>
-        <v>0.4909638554</v>
+        <v>0.493</v>
       </c>
     </row>
     <row r="74" ht="12.75" customHeight="1">
@@ -2861,14 +2787,13 @@
         <v>149</v>
       </c>
       <c r="D74" s="21">
-        <v>5628.0</v>
+        <v>5680.0</v>
       </c>
       <c r="E74" s="21">
-        <v>1379.0</v>
+        <v>1394.0</v>
       </c>
       <c r="F74" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2450248756</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="75" ht="12.75" customHeight="1">
@@ -2882,14 +2807,13 @@
         <v>149</v>
       </c>
       <c r="D75" s="21">
-        <v>1407.0</v>
+        <v>1427.0</v>
       </c>
       <c r="E75" s="21">
-        <v>257.0</v>
+        <v>260.0</v>
       </c>
       <c r="F75" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1826581379</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="76" ht="12.75" customHeight="1">
@@ -2903,14 +2827,13 @@
         <v>149</v>
       </c>
       <c r="D76" s="21">
-        <v>1139.0</v>
+        <v>1162.0</v>
       </c>
       <c r="E76" s="21">
-        <v>138.0</v>
+        <v>140.0</v>
       </c>
       <c r="F76" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1211589113</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="77" ht="12.75" customHeight="1">
@@ -2924,14 +2847,13 @@
         <v>149</v>
       </c>
       <c r="D77" s="21">
-        <v>1123.0</v>
+        <v>1166.0</v>
       </c>
       <c r="E77" s="21">
-        <v>107.0</v>
+        <v>115.0</v>
       </c>
       <c r="F77" s="22">
-        <f t="shared" si="1"/>
-        <v>0.09528049866</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="78" ht="12.75" customHeight="1">
@@ -2945,14 +2867,13 @@
         <v>149</v>
       </c>
       <c r="D78" s="21">
-        <v>7819.0</v>
+        <v>7827.0</v>
       </c>
       <c r="E78" s="21">
-        <v>2577.0</v>
+        <v>2580.0</v>
       </c>
       <c r="F78" s="22">
-        <f t="shared" si="1"/>
-        <v>0.329581788</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="79" ht="12.75" customHeight="1">
@@ -2966,14 +2887,13 @@
         <v>149</v>
       </c>
       <c r="D79" s="21">
-        <v>3292.0</v>
+        <v>3330.0</v>
       </c>
       <c r="E79" s="21">
-        <v>1026.0</v>
+        <v>1030.0</v>
       </c>
       <c r="F79" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3116646416</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="80" ht="12.75" customHeight="1">
@@ -2987,14 +2907,13 @@
         <v>149</v>
       </c>
       <c r="D80" s="21">
-        <v>5707.0</v>
+        <v>5709.0</v>
       </c>
       <c r="E80" s="21">
         <v>2112.0</v>
       </c>
       <c r="F80" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3700718416</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="81" ht="12.75" customHeight="1">
@@ -3008,14 +2927,13 @@
         <v>149</v>
       </c>
       <c r="D81" s="21">
-        <v>7976.0</v>
+        <v>7985.0</v>
       </c>
       <c r="E81" s="21">
-        <v>2903.0</v>
+        <v>2904.0</v>
       </c>
       <c r="F81" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3639669007</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="82" ht="12.75" customHeight="1">
@@ -3029,14 +2947,13 @@
         <v>149</v>
       </c>
       <c r="D82" s="21">
-        <v>3569.0</v>
+        <v>3590.0</v>
       </c>
       <c r="E82" s="21">
-        <v>300.0</v>
+        <v>301.0</v>
       </c>
       <c r="F82" s="22">
-        <f t="shared" si="1"/>
-        <v>0.08405715887</v>
+        <v>0.084</v>
       </c>
     </row>
     <row r="83" ht="12.75" customHeight="1">
@@ -3050,14 +2967,13 @@
         <v>149</v>
       </c>
       <c r="D83" s="21">
-        <v>3537.0</v>
+        <v>3595.0</v>
       </c>
       <c r="E83" s="21">
-        <v>820.0</v>
+        <v>826.0</v>
       </c>
       <c r="F83" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2318348883</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="84" ht="12.75" customHeight="1">
@@ -3071,14 +2987,13 @@
         <v>149</v>
       </c>
       <c r="D84" s="21">
-        <v>45434.0</v>
+        <v>45457.0</v>
       </c>
       <c r="E84" s="21">
-        <v>12380.0</v>
+        <v>12383.0</v>
       </c>
       <c r="F84" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2724831624</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="85" ht="12.75" customHeight="1">
@@ -3092,14 +3007,13 @@
         <v>149</v>
       </c>
       <c r="D85" s="21">
-        <v>1689.0</v>
+        <v>1697.0</v>
       </c>
       <c r="E85" s="21">
-        <v>179.0</v>
+        <v>181.0</v>
       </c>
       <c r="F85" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1059798697</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="86" ht="12.75" customHeight="1">
@@ -3113,14 +3027,13 @@
         <v>149</v>
       </c>
       <c r="D86" s="21">
-        <v>3217.0</v>
+        <v>3303.0</v>
       </c>
       <c r="E86" s="21">
-        <v>498.0</v>
+        <v>510.0</v>
       </c>
       <c r="F86" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1548026111</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="87" ht="12.75" customHeight="1">
@@ -3134,14 +3047,13 @@
         <v>149</v>
       </c>
       <c r="D87" s="21">
-        <v>920.0</v>
+        <v>934.0</v>
       </c>
       <c r="E87" s="21">
         <v>92.0</v>
       </c>
       <c r="F87" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="88" ht="12.75" customHeight="1">
@@ -3155,14 +3067,13 @@
         <v>149</v>
       </c>
       <c r="D88" s="21">
-        <v>4047.0</v>
+        <v>4109.0</v>
       </c>
       <c r="E88" s="21">
-        <v>372.0</v>
+        <v>375.0</v>
       </c>
       <c r="F88" s="22">
-        <f t="shared" si="1"/>
-        <v>0.0919199407</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="89" ht="12.75" customHeight="1">
@@ -3176,14 +3087,13 @@
         <v>149</v>
       </c>
       <c r="D89" s="21">
-        <v>7189.0</v>
+        <v>7201.0</v>
       </c>
       <c r="E89" s="21">
-        <v>607.0</v>
+        <v>610.0</v>
       </c>
       <c r="F89" s="22">
-        <f t="shared" si="1"/>
-        <v>0.08443455279</v>
+        <v>0.085</v>
       </c>
     </row>
     <row r="90" ht="12.75" customHeight="1">
@@ -3197,14 +3107,13 @@
         <v>149</v>
       </c>
       <c r="D90" s="21">
-        <v>762.0</v>
+        <v>786.0</v>
       </c>
       <c r="E90" s="21">
-        <v>81.0</v>
+        <v>85.0</v>
       </c>
       <c r="F90" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1062992126</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="91" ht="12.75" customHeight="1">
@@ -3218,14 +3127,13 @@
         <v>149</v>
       </c>
       <c r="D91" s="21">
-        <v>1112.0</v>
+        <v>1144.0</v>
       </c>
       <c r="E91" s="21">
-        <v>236.0</v>
+        <v>243.0</v>
       </c>
       <c r="F91" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2122302158</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="92" ht="12.75" customHeight="1">
@@ -3239,14 +3147,13 @@
         <v>149</v>
       </c>
       <c r="D92" s="21">
-        <v>2064.0</v>
+        <v>2102.0</v>
       </c>
       <c r="E92" s="21">
         <v>468.0</v>
       </c>
       <c r="F92" s="22">
-        <f t="shared" si="1"/>
-        <v>0.226744186</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="93" ht="12.75" customHeight="1">
@@ -3260,14 +3167,13 @@
         <v>149</v>
       </c>
       <c r="D93" s="21">
-        <v>49782.0</v>
+        <v>49850.0</v>
       </c>
       <c r="E93" s="21">
-        <v>10594.0</v>
+        <v>10610.0</v>
       </c>
       <c r="F93" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2128078422</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="94" ht="12.75" customHeight="1">
@@ -3281,14 +3187,13 @@
         <v>149</v>
       </c>
       <c r="D94" s="21">
-        <v>74097.0</v>
+        <v>74105.0</v>
       </c>
       <c r="E94" s="21">
-        <v>10952.0</v>
+        <v>10953.0</v>
       </c>
       <c r="F94" s="22">
-        <f t="shared" si="1"/>
-        <v>0.147806254</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="95" ht="12.75" customHeight="1">
@@ -3302,14 +3207,13 @@
         <v>149</v>
       </c>
       <c r="D95" s="21">
-        <v>4416.0</v>
+        <v>4439.0</v>
       </c>
       <c r="E95" s="21">
-        <v>1498.0</v>
+        <v>1505.0</v>
       </c>
       <c r="F95" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3392210145</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="96" ht="12.75" customHeight="1">
@@ -3323,14 +3227,13 @@
         <v>149</v>
       </c>
       <c r="D96" s="21">
-        <v>11224.0</v>
+        <v>11398.0</v>
       </c>
       <c r="E96" s="21">
-        <v>2993.0</v>
+        <v>3031.0</v>
       </c>
       <c r="F96" s="22">
-        <f t="shared" si="1"/>
-        <v>0.266660727</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="97" ht="12.75" customHeight="1">
@@ -3344,14 +3247,13 @@
         <v>149</v>
       </c>
       <c r="D97" s="21">
-        <v>2821.0</v>
+        <v>2880.0</v>
       </c>
       <c r="E97" s="21">
-        <v>647.0</v>
+        <v>658.0</v>
       </c>
       <c r="F97" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2293512939</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="98" ht="12.75" customHeight="1">
@@ -3365,14 +3267,13 @@
         <v>149</v>
       </c>
       <c r="D98" s="21">
-        <v>3077.0</v>
+        <v>3250.0</v>
       </c>
       <c r="E98" s="21">
-        <v>520.0</v>
+        <v>532.0</v>
       </c>
       <c r="F98" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1689957751</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="99" ht="12.75" customHeight="1">
@@ -3386,14 +3287,13 @@
         <v>149</v>
       </c>
       <c r="D99" s="21">
-        <v>19719.0</v>
+        <v>19727.0</v>
       </c>
       <c r="E99" s="21">
-        <v>1377.0</v>
+        <v>1381.0</v>
       </c>
       <c r="F99" s="22">
-        <f t="shared" si="1"/>
-        <v>0.06983112734</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="100" ht="12.75" customHeight="1">
@@ -3407,14 +3307,13 @@
         <v>149</v>
       </c>
       <c r="D100" s="21">
-        <v>1505.0</v>
+        <v>1534.0</v>
       </c>
       <c r="E100" s="21">
-        <v>301.0</v>
+        <v>304.0</v>
       </c>
       <c r="F100" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="101" ht="12.75" customHeight="1">
@@ -3428,14 +3327,13 @@
         <v>149</v>
       </c>
       <c r="D101" s="21">
-        <v>1414.0</v>
+        <v>1440.0</v>
       </c>
       <c r="E101" s="21">
-        <v>201.0</v>
+        <v>205.0</v>
       </c>
       <c r="F101" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1421499293</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="102" ht="12.75" customHeight="1">
@@ -3449,14 +3347,13 @@
         <v>149</v>
       </c>
       <c r="D102" s="21">
-        <v>1677.0</v>
+        <v>1682.0</v>
       </c>
       <c r="E102" s="21">
-        <v>405.0</v>
+        <v>406.0</v>
       </c>
       <c r="F102" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2415026834</v>
+        <v>0.241</v>
       </c>
     </row>
     <row r="103" ht="12.75" customHeight="1">
@@ -3470,14 +3367,13 @@
         <v>149</v>
       </c>
       <c r="D103" s="21">
-        <v>28189.0</v>
+        <v>28215.0</v>
       </c>
       <c r="E103" s="21">
-        <v>155.0</v>
+        <v>157.0</v>
       </c>
       <c r="F103" s="22">
-        <f t="shared" si="1"/>
-        <v>0.005498598744</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="104" ht="12.75" customHeight="1">
@@ -3497,8 +3393,7 @@
         <v>7070.0</v>
       </c>
       <c r="F104" s="22">
-        <f t="shared" si="1"/>
-        <v>0.03043936882</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="105" ht="12.75" customHeight="1">
@@ -3512,14 +3407,13 @@
         <v>149</v>
       </c>
       <c r="D105" s="21">
-        <v>4536.0</v>
+        <v>4539.0</v>
       </c>
       <c r="E105" s="21">
         <v>232.0</v>
       </c>
       <c r="F105" s="22">
-        <f t="shared" si="1"/>
-        <v>0.05114638448</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="106" ht="12.75" customHeight="1">
@@ -3539,8 +3433,7 @@
         <v>4964.0</v>
       </c>
       <c r="F106" s="22">
-        <f t="shared" si="1"/>
-        <v>0.04813015698</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="107" ht="12.75" customHeight="1">
@@ -3554,14 +3447,13 @@
         <v>149</v>
       </c>
       <c r="D107" s="21">
-        <v>7578.0</v>
+        <v>7635.0</v>
       </c>
       <c r="E107" s="21">
-        <v>1659.0</v>
+        <v>1684.0</v>
       </c>
       <c r="F107" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2189231987</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="108" ht="12.75" customHeight="1">
@@ -3575,14 +3467,13 @@
         <v>149</v>
       </c>
       <c r="D108" s="21">
-        <v>5946.0</v>
+        <v>6079.0</v>
       </c>
       <c r="E108" s="21">
-        <v>1966.0</v>
+        <v>2015.0</v>
       </c>
       <c r="F108" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3306424487</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="109" ht="12.75" customHeight="1">
@@ -3596,14 +3487,13 @@
         <v>149</v>
       </c>
       <c r="D109" s="21">
-        <v>850.0</v>
+        <v>887.0</v>
       </c>
       <c r="E109" s="21">
-        <v>129.0</v>
+        <v>137.0</v>
       </c>
       <c r="F109" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1517647059</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="110" ht="12.75" customHeight="1">
@@ -3617,14 +3507,13 @@
         <v>149</v>
       </c>
       <c r="D110" s="21">
-        <v>1558.0</v>
+        <v>1570.0</v>
       </c>
       <c r="E110" s="21">
-        <v>127.0</v>
+        <v>130.0</v>
       </c>
       <c r="F110" s="22">
-        <f t="shared" si="1"/>
-        <v>0.08151476252</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="111" ht="12.75" customHeight="1">
@@ -3638,14 +3527,13 @@
         <v>149</v>
       </c>
       <c r="D111" s="21">
-        <v>1552.0</v>
+        <v>1584.0</v>
       </c>
       <c r="E111" s="21">
-        <v>419.0</v>
+        <v>434.0</v>
       </c>
       <c r="F111" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2699742268</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="112" ht="12.75" customHeight="1">
@@ -3659,14 +3547,13 @@
         <v>149</v>
       </c>
       <c r="D112" s="21">
-        <v>2316.0</v>
+        <v>2355.0</v>
       </c>
       <c r="E112" s="21">
-        <v>204.0</v>
+        <v>213.0</v>
       </c>
       <c r="F112" s="22">
-        <f t="shared" si="1"/>
-        <v>0.08808290155</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="113" ht="12.75" customHeight="1">
@@ -3680,14 +3567,13 @@
         <v>149</v>
       </c>
       <c r="D113" s="21">
-        <v>5236.0</v>
+        <v>5258.0</v>
       </c>
       <c r="E113" s="21">
-        <v>2320.0</v>
+        <v>2330.0</v>
       </c>
       <c r="F113" s="22">
-        <f t="shared" si="1"/>
-        <v>0.4430863254</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="114" ht="12.75" customHeight="1">
@@ -3701,14 +3587,13 @@
         <v>149</v>
       </c>
       <c r="D114" s="21">
-        <v>417.0</v>
+        <v>450.0</v>
       </c>
       <c r="E114" s="21">
-        <v>99.0</v>
+        <v>118.0</v>
       </c>
       <c r="F114" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2374100719</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="115" ht="12.75" customHeight="1">
@@ -3722,14 +3607,13 @@
         <v>149</v>
       </c>
       <c r="D115" s="21">
-        <v>26127.0</v>
+        <v>26135.0</v>
       </c>
       <c r="E115" s="21">
         <v>7407.0</v>
       </c>
       <c r="F115" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2834998278</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="116" ht="12.75" customHeight="1">
@@ -3743,14 +3627,13 @@
         <v>149</v>
       </c>
       <c r="D116" s="21">
-        <v>1389.0</v>
+        <v>1399.0</v>
       </c>
       <c r="E116" s="21">
-        <v>338.0</v>
+        <v>339.0</v>
       </c>
       <c r="F116" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2433405328</v>
+        <v>0.242</v>
       </c>
     </row>
     <row r="117" ht="12.75" customHeight="1">
@@ -3764,14 +3647,13 @@
         <v>149</v>
       </c>
       <c r="D117" s="21">
-        <v>37375.0</v>
+        <v>37441.0</v>
       </c>
       <c r="E117" s="21">
-        <v>4898.0</v>
+        <v>4918.0</v>
       </c>
       <c r="F117" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1310501672</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="118" ht="12.75" customHeight="1">
@@ -3785,14 +3667,13 @@
         <v>149</v>
       </c>
       <c r="D118" s="21">
-        <v>1509.0</v>
+        <v>1544.0</v>
       </c>
       <c r="E118" s="21">
-        <v>435.0</v>
+        <v>437.0</v>
       </c>
       <c r="F118" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2882703777</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="119" ht="12.75" customHeight="1">
@@ -3806,14 +3687,13 @@
         <v>149</v>
       </c>
       <c r="D119" s="21">
-        <v>6580.0</v>
+        <v>6620.0</v>
       </c>
       <c r="E119" s="21">
-        <v>770.0</v>
+        <v>771.0</v>
       </c>
       <c r="F119" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1170212766</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="120" ht="12.75" customHeight="1">
@@ -3827,14 +3707,13 @@
         <v>149</v>
       </c>
       <c r="D120" s="21">
-        <v>4752.0</v>
+        <v>4878.0</v>
       </c>
       <c r="E120" s="21">
-        <v>955.0</v>
+        <v>969.0</v>
       </c>
       <c r="F120" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2009680135</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="121" ht="12.75" customHeight="1">
@@ -3848,14 +3727,13 @@
         <v>149</v>
       </c>
       <c r="D121" s="21">
-        <v>2529.0</v>
+        <v>2627.0</v>
       </c>
       <c r="E121" s="21">
-        <v>591.0</v>
+        <v>605.0</v>
       </c>
       <c r="F121" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2336892052</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="122" ht="12.75" customHeight="1">
@@ -3869,14 +3747,13 @@
         <v>266</v>
       </c>
       <c r="D122" s="21">
-        <v>131260.0</v>
+        <v>131265.0</v>
       </c>
       <c r="E122" s="21">
-        <v>51457.0</v>
+        <v>51459.0</v>
       </c>
       <c r="F122" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3920234649</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="123" ht="12.75" customHeight="1">
@@ -3890,14 +3767,13 @@
         <v>269</v>
       </c>
       <c r="D123" s="21">
-        <v>62592.0</v>
+        <v>62600.0</v>
       </c>
       <c r="E123" s="21">
-        <v>16104.0</v>
+        <v>16106.0</v>
       </c>
       <c r="F123" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2572852761</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="124" ht="12.75" customHeight="1">
@@ -3911,14 +3787,13 @@
         <v>272</v>
       </c>
       <c r="D124" s="21">
-        <v>106614.0</v>
+        <v>106620.0</v>
       </c>
       <c r="E124" s="21">
-        <v>15577.0</v>
+        <v>15580.0</v>
       </c>
       <c r="F124" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1461065151</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="125" ht="12.75" customHeight="1">
@@ -3932,14 +3807,13 @@
         <v>272</v>
       </c>
       <c r="D125" s="21">
-        <v>54694.0</v>
+        <v>54701.0</v>
       </c>
       <c r="E125" s="21">
-        <v>14130.0</v>
+        <v>14131.0</v>
       </c>
       <c r="F125" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2583464365</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="126" ht="12.75" customHeight="1">
@@ -3953,14 +3827,13 @@
         <v>272</v>
       </c>
       <c r="D126" s="21">
-        <v>58033.0</v>
+        <v>58054.0</v>
       </c>
       <c r="E126" s="21">
-        <v>11863.0</v>
+        <v>11866.0</v>
       </c>
       <c r="F126" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2044181759</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="127" ht="12.75" customHeight="1">
@@ -3974,14 +3847,13 @@
         <v>272</v>
       </c>
       <c r="D127" s="21">
-        <v>44164.0</v>
+        <v>44167.0</v>
       </c>
       <c r="E127" s="21">
         <v>12489.0</v>
       </c>
       <c r="F127" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2827868852</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="128" ht="12.75" customHeight="1">
@@ -4001,8 +3873,7 @@
         <v>45070.0</v>
       </c>
       <c r="F128" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2865754017</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="129" ht="12.75" customHeight="1">
@@ -4016,14 +3887,13 @@
         <v>283</v>
       </c>
       <c r="D129" s="21">
-        <v>64522.0</v>
+        <v>64524.0</v>
       </c>
       <c r="E129" s="21">
         <v>14204.0</v>
       </c>
       <c r="F129" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2201419671</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="130" ht="12.75" customHeight="1">
@@ -4037,14 +3907,13 @@
         <v>286</v>
       </c>
       <c r="D130" s="21">
-        <v>32844.0</v>
+        <v>32847.0</v>
       </c>
       <c r="E130" s="21">
         <v>17952.0</v>
       </c>
       <c r="F130" s="22">
-        <f t="shared" si="1"/>
-        <v>0.5465838509</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="131" ht="12.75" customHeight="1">
@@ -4058,14 +3927,13 @@
         <v>289</v>
       </c>
       <c r="D131" s="21">
-        <v>7088.0</v>
+        <v>7092.0</v>
       </c>
       <c r="E131" s="21">
         <v>1511.0</v>
       </c>
       <c r="F131" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2131772009</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="132" ht="12.75" customHeight="1">
@@ -4079,14 +3947,13 @@
         <v>289</v>
       </c>
       <c r="D132" s="21">
-        <v>7050.0</v>
+        <v>7053.0</v>
       </c>
       <c r="E132" s="21">
-        <v>1040.0</v>
+        <v>1042.0</v>
       </c>
       <c r="F132" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1475177305</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="133" ht="12.75" customHeight="1">
@@ -4100,14 +3967,13 @@
         <v>289</v>
       </c>
       <c r="D133" s="21">
-        <v>2378.0</v>
+        <v>2381.0</v>
       </c>
       <c r="E133" s="21">
-        <v>989.0</v>
+        <v>990.0</v>
       </c>
       <c r="F133" s="22">
-        <f t="shared" si="1"/>
-        <v>0.4158957107</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="134" ht="12.75" customHeight="1">
@@ -4121,14 +3987,13 @@
         <v>289</v>
       </c>
       <c r="D134" s="21">
-        <v>4423.0</v>
+        <v>4428.0</v>
       </c>
       <c r="E134" s="21">
-        <v>1222.0</v>
+        <v>1223.0</v>
       </c>
       <c r="F134" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2762830658</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="135" ht="12.75" customHeight="1">
@@ -4142,14 +4007,13 @@
         <v>289</v>
       </c>
       <c r="D135" s="21">
-        <v>12747.0</v>
+        <v>12765.0</v>
       </c>
       <c r="E135" s="21">
         <v>1654.0</v>
       </c>
       <c r="F135" s="22">
-        <f t="shared" si="1"/>
-        <v>0.129756021</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="136" ht="12.75" customHeight="1">
@@ -4163,14 +4027,13 @@
         <v>289</v>
       </c>
       <c r="D136" s="21">
-        <v>123547.0</v>
+        <v>123549.0</v>
       </c>
       <c r="E136" s="21">
         <v>37222.0</v>
       </c>
       <c r="F136" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3012780561</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="137" ht="12.75" customHeight="1">
@@ -4184,14 +4047,13 @@
         <v>302</v>
       </c>
       <c r="D137" s="21">
-        <v>1425.0</v>
+        <v>1426.0</v>
       </c>
       <c r="E137" s="21">
-        <v>1213.0</v>
+        <v>1214.0</v>
       </c>
       <c r="F137" s="22">
-        <f t="shared" si="1"/>
-        <v>0.8512280702</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="138" ht="12.75" customHeight="1">
@@ -4211,8 +4073,7 @@
         <v>758.0</v>
       </c>
       <c r="F138" s="22">
-        <f t="shared" si="1"/>
-        <v>0.284962406</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="139" ht="12.75" customHeight="1">
@@ -4225,16 +4086,9 @@
       <c r="C139" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="D139" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="E139" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="F139" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D139" s="21"/>
+      <c r="E139" s="21"/>
+      <c r="F139" s="22"/>
     </row>
     <row r="140" ht="12.75" customHeight="1">
       <c r="A140" s="19" t="s">
@@ -4247,14 +4101,13 @@
         <v>302</v>
       </c>
       <c r="D140" s="21">
-        <v>33214.0</v>
+        <v>33216.0</v>
       </c>
       <c r="E140" s="21">
         <v>20175.0</v>
       </c>
       <c r="F140" s="22">
-        <f t="shared" si="1"/>
-        <v>0.60742458</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="141" ht="12.75" customHeight="1">
@@ -4274,8 +4127,7 @@
         <v>186.0</v>
       </c>
       <c r="F141" s="22">
-        <f t="shared" si="1"/>
-        <v>0.9029126214</v>
+        <v>0.903</v>
       </c>
     </row>
     <row r="142" ht="12.75" customHeight="1">
@@ -4289,14 +4141,13 @@
         <v>302</v>
       </c>
       <c r="D142" s="21">
-        <v>16087.0</v>
+        <v>16088.0</v>
       </c>
       <c r="E142" s="21">
-        <v>8583.0</v>
+        <v>8584.0</v>
       </c>
       <c r="F142" s="22">
-        <f t="shared" si="1"/>
-        <v>0.5335363958</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="143" ht="12.75" customHeight="1">
@@ -4316,8 +4167,7 @@
         <v>9351.0</v>
       </c>
       <c r="F143" s="22">
-        <f t="shared" si="1"/>
-        <v>0.7185338866</v>
+        <v>0.719</v>
       </c>
     </row>
     <row r="144" ht="12.75" customHeight="1">
@@ -4337,8 +4187,7 @@
         <v>24590.0</v>
       </c>
       <c r="F144" s="22">
-        <f t="shared" si="1"/>
-        <v>0.4619401864</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="145" ht="12.75" customHeight="1">
@@ -4352,14 +4201,13 @@
         <v>302</v>
       </c>
       <c r="D145" s="21">
-        <v>1346.0</v>
+        <v>1347.0</v>
       </c>
       <c r="E145" s="21">
         <v>548.0</v>
       </c>
       <c r="F145" s="22">
-        <f t="shared" si="1"/>
-        <v>0.4071322437</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="146" ht="12.75" customHeight="1">
@@ -4379,8 +4227,7 @@
         <v>41580.0</v>
       </c>
       <c r="F146" s="22">
-        <f t="shared" si="1"/>
-        <v>0.3646696661</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="147" ht="12.75" customHeight="1">
@@ -4394,14 +4241,13 @@
         <v>323</v>
       </c>
       <c r="D147" s="21">
-        <v>2353.0</v>
+        <v>2367.0</v>
       </c>
       <c r="E147" s="21">
         <v>627.0</v>
       </c>
       <c r="F147" s="22">
-        <f t="shared" si="1"/>
-        <v>0.2664683383</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="148" ht="12.75" customHeight="1">
@@ -4415,14 +4261,13 @@
         <v>323</v>
       </c>
       <c r="D148" s="21">
-        <v>58242.0</v>
+        <v>58250.0</v>
       </c>
       <c r="E148" s="21">
-        <v>25857.0</v>
+        <v>25858.0</v>
       </c>
       <c r="F148" s="22">
-        <f t="shared" si="1"/>
-        <v>0.4439579685</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="149" ht="12.75" customHeight="1">
@@ -4436,14 +4281,13 @@
         <v>328</v>
       </c>
       <c r="D149" s="21">
-        <v>85983.0</v>
+        <v>85990.0</v>
       </c>
       <c r="E149" s="21">
-        <v>13848.0</v>
+        <v>13849.0</v>
       </c>
       <c r="F149" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1610550923</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="150" ht="12.75" customHeight="1">
@@ -4457,14 +4301,13 @@
         <v>328</v>
       </c>
       <c r="D150" s="21">
-        <v>128458.0</v>
+        <v>128483.0</v>
       </c>
       <c r="E150" s="21">
-        <v>25089.0</v>
+        <v>25092.0</v>
       </c>
       <c r="F150" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1953089726</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="151" ht="12.75" customHeight="1"/>

--- a/static/download/2024/RP3_APT_CDO_2024_Jan_Dec.xlsx
+++ b/static/download/2024/RP3_APT_CDO_2024_Jan_Dec.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="341">
   <si>
     <t>Data source</t>
   </si>
@@ -935,6 +935,9 @@
     <t>LPFL</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Faro (LPFR)</t>
   </si>
   <si>
@@ -1026,6 +1029,12 @@
   </si>
   <si>
     <t>UK airports removed</t>
+  </si>
+  <si>
+    <t>all apts</t>
+  </si>
+  <si>
+    <t>file updated with slightly revised figures to align with RP3 methodology</t>
   </si>
 </sst>
 </file>
@@ -1279,6 +1288,9 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -1287,9 +1299,6 @@
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1353,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6">
-        <v>45758.0</v>
+        <v>45828.0</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>6</v>
@@ -1436,10 +1445,11 @@
         <v>96625.0</v>
       </c>
       <c r="E6" s="21">
-        <v>14821.0</v>
+        <v>16889.0</v>
       </c>
       <c r="F6" s="22">
-        <v>0.153</v>
+        <f t="shared" ref="F6:F55" si="1">E6/D6</f>
+        <v>0.1747891332</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -1456,10 +1466,11 @@
         <v>94212.0</v>
       </c>
       <c r="E7" s="21">
-        <v>16890.0</v>
+        <v>21874.0</v>
       </c>
       <c r="F7" s="22">
-        <v>0.179</v>
+        <f t="shared" si="1"/>
+        <v>0.2321784911</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -1476,10 +1487,11 @@
         <v>5589.0</v>
       </c>
       <c r="E8" s="21">
-        <v>1248.0</v>
+        <v>1306.0</v>
       </c>
       <c r="F8" s="22">
-        <v>0.223</v>
+        <f t="shared" si="1"/>
+        <v>0.2336732868</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -1496,10 +1508,11 @@
         <v>1359.0</v>
       </c>
       <c r="E9" s="21">
-        <v>186.0</v>
+        <v>211.0</v>
       </c>
       <c r="F9" s="22">
-        <v>0.137</v>
+        <f t="shared" si="1"/>
+        <v>0.1552612215</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -1516,10 +1529,11 @@
         <v>219497.0</v>
       </c>
       <c r="E10" s="21">
-        <v>8714.0</v>
+        <v>9721.0</v>
       </c>
       <c r="F10" s="22">
-        <v>0.04</v>
+        <f t="shared" si="1"/>
+        <v>0.04428762124</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
@@ -1536,10 +1550,11 @@
         <v>8285.0</v>
       </c>
       <c r="E11" s="21">
-        <v>1619.0</v>
+        <v>1920.0</v>
       </c>
       <c r="F11" s="22">
-        <v>0.195</v>
+        <f t="shared" si="1"/>
+        <v>0.2317441159</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -1556,10 +1571,11 @@
         <v>60170.0</v>
       </c>
       <c r="E12" s="21">
-        <v>13632.0</v>
+        <v>17147.0</v>
       </c>
       <c r="F12" s="22">
-        <v>0.227</v>
+        <f t="shared" si="1"/>
+        <v>0.2849759016</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
@@ -1576,10 +1592,11 @@
         <v>56854.0</v>
       </c>
       <c r="E13" s="21">
-        <v>10702.0</v>
+        <v>10445.0</v>
       </c>
       <c r="F13" s="22">
-        <v>0.188</v>
+        <f t="shared" si="1"/>
+        <v>0.1837161853</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
@@ -1596,10 +1613,11 @@
         <v>77265.0</v>
       </c>
       <c r="E14" s="21">
-        <v>13444.0</v>
+        <v>14201.0</v>
       </c>
       <c r="F14" s="22">
-        <v>0.174</v>
+        <f t="shared" si="1"/>
+        <v>0.1837960267</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
@@ -1616,10 +1634,11 @@
         <v>161547.0</v>
       </c>
       <c r="E15" s="21">
-        <v>7033.0</v>
+        <v>8182.0</v>
       </c>
       <c r="F15" s="22">
-        <v>0.044</v>
+        <f t="shared" si="1"/>
+        <v>0.05064779909</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
@@ -1636,10 +1655,11 @@
         <v>18870.0</v>
       </c>
       <c r="E16" s="21">
-        <v>2429.0</v>
+        <v>2362.0</v>
       </c>
       <c r="F16" s="22">
-        <v>0.129</v>
+        <f t="shared" si="1"/>
+        <v>0.1251722311</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
@@ -1656,10 +1676,11 @@
         <v>36063.0</v>
       </c>
       <c r="E17" s="21">
-        <v>4778.0</v>
+        <v>5742.0</v>
       </c>
       <c r="F17" s="22">
-        <v>0.132</v>
+        <f t="shared" si="1"/>
+        <v>0.1592213626</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
@@ -1676,10 +1697,11 @@
         <v>2460.0</v>
       </c>
       <c r="E18" s="21">
-        <v>297.0</v>
+        <v>290.0</v>
       </c>
       <c r="F18" s="22">
-        <v>0.121</v>
+        <f t="shared" si="1"/>
+        <v>0.1178861789</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
@@ -1696,10 +1718,11 @@
         <v>41985.0</v>
       </c>
       <c r="E19" s="21">
-        <v>3621.0</v>
+        <v>3897.0</v>
       </c>
       <c r="F19" s="22">
-        <v>0.086</v>
+        <f t="shared" si="1"/>
+        <v>0.09281886388</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -1716,10 +1739,11 @@
         <v>24453.0</v>
       </c>
       <c r="E20" s="21">
-        <v>5716.0</v>
+        <v>6358.0</v>
       </c>
       <c r="F20" s="22">
-        <v>0.234</v>
+        <f t="shared" si="1"/>
+        <v>0.2600089969</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -1736,10 +1760,11 @@
         <v>10517.0</v>
       </c>
       <c r="E21" s="21">
-        <v>2183.0</v>
+        <v>2410.0</v>
       </c>
       <c r="F21" s="22">
-        <v>0.208</v>
+        <f t="shared" si="1"/>
+        <v>0.2291528002</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -1759,7 +1784,8 @@
         <v>13272.0</v>
       </c>
       <c r="F22" s="22">
-        <v>0.692</v>
+        <f t="shared" si="1"/>
+        <v>0.6922956549</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
@@ -1779,7 +1805,8 @@
         <v>400.0</v>
       </c>
       <c r="F23" s="22">
-        <v>0.778</v>
+        <f t="shared" si="1"/>
+        <v>0.7782101167</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
@@ -1799,7 +1826,8 @@
         <v>47827.0</v>
       </c>
       <c r="F24" s="22">
-        <v>0.627</v>
+        <f t="shared" si="1"/>
+        <v>0.6273874488</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
@@ -1819,7 +1847,8 @@
         <v>60549.0</v>
       </c>
       <c r="F25" s="22">
-        <v>0.249</v>
+        <f t="shared" si="1"/>
+        <v>0.2486142248</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -1839,7 +1868,8 @@
         <v>396.0</v>
       </c>
       <c r="F26" s="22">
-        <v>0.131</v>
+        <f t="shared" si="1"/>
+        <v>0.1309956996</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -1859,7 +1889,8 @@
         <v>647.0</v>
       </c>
       <c r="F27" s="22">
-        <v>0.24</v>
+        <f t="shared" si="1"/>
+        <v>0.2403417533</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
@@ -1879,7 +1910,8 @@
         <v>2260.0</v>
       </c>
       <c r="F28" s="22">
-        <v>0.19</v>
+        <f t="shared" si="1"/>
+        <v>0.1904761905</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
@@ -1899,7 +1931,8 @@
         <v>5795.0</v>
       </c>
       <c r="F29" s="22">
-        <v>0.517</v>
+        <f t="shared" si="1"/>
+        <v>0.517041399</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
@@ -1919,7 +1952,8 @@
         <v>48420.0</v>
       </c>
       <c r="F30" s="22">
-        <v>0.399</v>
+        <f t="shared" si="1"/>
+        <v>0.3989913972</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
@@ -1939,7 +1973,8 @@
         <v>5481.0</v>
       </c>
       <c r="F31" s="22">
-        <v>0.511</v>
+        <f t="shared" si="1"/>
+        <v>0.5107632094</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
@@ -1959,7 +1994,8 @@
         <v>58221.0</v>
       </c>
       <c r="F32" s="22">
-        <v>0.486</v>
+        <f t="shared" si="1"/>
+        <v>0.4855148604</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
@@ -1979,7 +2015,8 @@
         <v>12714.0</v>
       </c>
       <c r="F33" s="22">
-        <v>0.357</v>
+        <f t="shared" si="1"/>
+        <v>0.3565339316</v>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
@@ -1999,7 +2036,8 @@
         <v>31728.0</v>
       </c>
       <c r="F34" s="22">
-        <v>0.738</v>
+        <f t="shared" si="1"/>
+        <v>0.7377232143</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
@@ -2019,7 +2057,8 @@
         <v>64002.0</v>
       </c>
       <c r="F35" s="22">
-        <v>0.586</v>
+        <f t="shared" si="1"/>
+        <v>0.5860184041</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
@@ -2039,7 +2078,8 @@
         <v>19973.0</v>
       </c>
       <c r="F36" s="22">
-        <v>0.784</v>
+        <f t="shared" si="1"/>
+        <v>0.784115892</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
@@ -2059,7 +2099,8 @@
         <v>19302.0</v>
       </c>
       <c r="F37" s="22">
-        <v>0.703</v>
+        <f t="shared" si="1"/>
+        <v>0.7031693989</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
@@ -2079,7 +2120,8 @@
         <v>706.0</v>
       </c>
       <c r="F38" s="22">
-        <v>0.376</v>
+        <f t="shared" si="1"/>
+        <v>0.3755319149</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
@@ -2099,7 +2141,8 @@
         <v>13604.0</v>
       </c>
       <c r="F39" s="22">
-        <v>0.534</v>
+        <f t="shared" si="1"/>
+        <v>0.5339927775</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
@@ -2119,7 +2162,8 @@
         <v>16977.0</v>
       </c>
       <c r="F40" s="22">
-        <v>0.452</v>
+        <f t="shared" si="1"/>
+        <v>0.4515399755</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
@@ -2139,7 +2183,8 @@
         <v>8049.0</v>
       </c>
       <c r="F41" s="22">
-        <v>0.364</v>
+        <f t="shared" si="1"/>
+        <v>0.3636979802</v>
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
@@ -2159,7 +2204,8 @@
         <v>747.0</v>
       </c>
       <c r="F42" s="22">
-        <v>0.435</v>
+        <f t="shared" si="1"/>
+        <v>0.4348079162</v>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
@@ -2179,7 +2225,8 @@
         <v>765.0</v>
       </c>
       <c r="F43" s="22">
-        <v>0.489</v>
+        <f t="shared" si="1"/>
+        <v>0.4891304348</v>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
@@ -2199,7 +2246,8 @@
         <v>5131.0</v>
       </c>
       <c r="F44" s="22">
-        <v>0.621</v>
+        <f t="shared" si="1"/>
+        <v>0.6207355432</v>
       </c>
     </row>
     <row r="45" ht="12.75" customHeight="1">
@@ -2219,7 +2267,8 @@
         <v>5001.0</v>
       </c>
       <c r="F45" s="22">
-        <v>0.349</v>
+        <f t="shared" si="1"/>
+        <v>0.3485017422</v>
       </c>
     </row>
     <row r="46" ht="12.75" customHeight="1">
@@ -2239,7 +2288,8 @@
         <v>113.0</v>
       </c>
       <c r="F46" s="22">
-        <v>0.219</v>
+        <f t="shared" si="1"/>
+        <v>0.2185686654</v>
       </c>
     </row>
     <row r="47" ht="12.75" customHeight="1">
@@ -2259,7 +2309,8 @@
         <v>2596.0</v>
       </c>
       <c r="F47" s="22">
-        <v>0.338</v>
+        <f t="shared" si="1"/>
+        <v>0.3376251788</v>
       </c>
     </row>
     <row r="48" ht="12.75" customHeight="1">
@@ -2279,7 +2330,8 @@
         <v>1345.0</v>
       </c>
       <c r="F48" s="22">
-        <v>0.532</v>
+        <f t="shared" si="1"/>
+        <v>0.5324623911</v>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
@@ -2299,7 +2351,8 @@
         <v>216.0</v>
       </c>
       <c r="F49" s="22">
-        <v>0.405</v>
+        <f t="shared" si="1"/>
+        <v>0.4052532833</v>
       </c>
     </row>
     <row r="50" ht="12.75" customHeight="1">
@@ -2319,7 +2372,8 @@
         <v>41989.0</v>
       </c>
       <c r="F50" s="22">
-        <v>0.462</v>
+        <f t="shared" si="1"/>
+        <v>0.4619455202</v>
       </c>
     </row>
     <row r="51" ht="12.75" customHeight="1">
@@ -2339,7 +2393,8 @@
         <v>5468.0</v>
       </c>
       <c r="F51" s="22">
-        <v>0.303</v>
+        <f t="shared" si="1"/>
+        <v>0.3034406215</v>
       </c>
     </row>
     <row r="52" ht="12.75" customHeight="1">
@@ -2359,7 +2414,8 @@
         <v>211.0</v>
       </c>
       <c r="F52" s="22">
-        <v>0.349</v>
+        <f t="shared" si="1"/>
+        <v>0.3493377483</v>
       </c>
     </row>
     <row r="53" ht="12.75" customHeight="1">
@@ -2379,7 +2435,8 @@
         <v>46201.0</v>
       </c>
       <c r="F53" s="22">
-        <v>0.487</v>
+        <f t="shared" si="1"/>
+        <v>0.4868028702</v>
       </c>
     </row>
     <row r="54" ht="12.75" customHeight="1">
@@ -2399,7 +2456,8 @@
         <v>23.0</v>
       </c>
       <c r="F54" s="22">
-        <v>0.442</v>
+        <f t="shared" si="1"/>
+        <v>0.4423076923</v>
       </c>
     </row>
     <row r="55" ht="12.75" customHeight="1">
@@ -2419,7 +2477,8 @@
         <v>18182.0</v>
       </c>
       <c r="F55" s="22">
-        <v>0.633</v>
+        <f t="shared" si="1"/>
+        <v>0.632681467</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
@@ -2432,8 +2491,12 @@
       <c r="C56" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
+      <c r="D56" s="21">
+        <v>6.0</v>
+      </c>
+      <c r="E56" s="21">
+        <v>4.0</v>
+      </c>
       <c r="F56" s="22"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
@@ -4086,16 +4149,20 @@
       <c r="C139" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="D139" s="21"/>
-      <c r="E139" s="21"/>
+      <c r="D139" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="E139" s="21" t="s">
+        <v>307</v>
+      </c>
       <c r="F139" s="22"/>
     </row>
     <row r="140" ht="12.75" customHeight="1">
       <c r="A140" s="19" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C140" s="20" t="s">
         <v>302</v>
@@ -4112,10 +4179,10 @@
     </row>
     <row r="141" ht="12.75" customHeight="1">
       <c r="A141" s="19" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C141" s="20" t="s">
         <v>302</v>
@@ -4132,10 +4199,10 @@
     </row>
     <row r="142" ht="12.75" customHeight="1">
       <c r="A142" s="19" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C142" s="20" t="s">
         <v>302</v>
@@ -4152,10 +4219,10 @@
     </row>
     <row r="143" ht="12.75" customHeight="1">
       <c r="A143" s="19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C143" s="20" t="s">
         <v>302</v>
@@ -4172,10 +4239,10 @@
     </row>
     <row r="144" ht="12.75" customHeight="1">
       <c r="A144" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C144" s="20" t="s">
         <v>302</v>
@@ -4192,10 +4259,10 @@
     </row>
     <row r="145" ht="12.75" customHeight="1">
       <c r="A145" s="19" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C145" s="20" t="s">
         <v>302</v>
@@ -4212,10 +4279,10 @@
     </row>
     <row r="146" ht="12.75" customHeight="1">
       <c r="A146" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C146" s="20" t="s">
         <v>302</v>
@@ -4232,13 +4299,13 @@
     </row>
     <row r="147" ht="12.75" customHeight="1">
       <c r="A147" s="19" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D147" s="21">
         <v>2367.0</v>
@@ -4252,13 +4319,13 @@
     </row>
     <row r="148" ht="12.75" customHeight="1">
       <c r="A148" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C148" s="20" t="s">
         <v>324</v>
-      </c>
-      <c r="B148" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="C148" s="20" t="s">
-        <v>323</v>
       </c>
       <c r="D148" s="21">
         <v>58250.0</v>
@@ -4272,13 +4339,13 @@
     </row>
     <row r="149" ht="12.75" customHeight="1">
       <c r="A149" s="19" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D149" s="21">
         <v>85990.0</v>
@@ -4292,13 +4359,13 @@
     </row>
     <row r="150" ht="12.75" customHeight="1">
       <c r="A150" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="C150" s="20" t="s">
         <v>329</v>
-      </c>
-      <c r="B150" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="C150" s="20" t="s">
-        <v>328</v>
       </c>
       <c r="D150" s="21">
         <v>128483.0</v>
@@ -4339,16 +4406,16 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
@@ -4362,7 +4429,7 @@
         <v>2021.0</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
@@ -4370,24 +4437,32 @@
         <v>44351.0</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="29" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
+      <c r="A4" s="28">
+        <v>45828.0</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="27">
+        <v>2024.0</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
